--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H2">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I2">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J2">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N2">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O2">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P2">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q2">
-        <v>1.296443989661333</v>
+        <v>16.49820121215</v>
       </c>
       <c r="R2">
-        <v>11.667995906952</v>
+        <v>148.48381090935</v>
       </c>
       <c r="S2">
-        <v>0.0006591496333171983</v>
+        <v>0.007820995382007404</v>
       </c>
       <c r="T2">
-        <v>0.0006591496333171981</v>
+        <v>0.007820995382007402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H3">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I3">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J3">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P3">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q3">
-        <v>0.07798862863166667</v>
+        <v>0.9802677700500001</v>
       </c>
       <c r="R3">
-        <v>0.701897657685</v>
+        <v>8.82240993045</v>
       </c>
       <c r="S3">
-        <v>3.965167517873482E-05</v>
+        <v>0.0004646973087614952</v>
       </c>
       <c r="T3">
-        <v>3.965167517873481E-05</v>
+        <v>0.0004646973087614952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H4">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I4">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J4">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N4">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q4">
-        <v>0.02004768198533333</v>
+        <v>0.3005817529500001</v>
       </c>
       <c r="R4">
-        <v>0.180429137868</v>
+        <v>2.705235776550001</v>
       </c>
       <c r="S4">
-        <v>1.01928215448353E-05</v>
+        <v>0.000142491200798689</v>
       </c>
       <c r="T4">
-        <v>1.019282154483529E-05</v>
+        <v>0.000142491200798689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H5">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I5">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J5">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N5">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O5">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P5">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q5">
-        <v>0.05072578219566667</v>
+        <v>0.23422737708</v>
       </c>
       <c r="R5">
-        <v>0.456532039761</v>
+        <v>2.10804639372</v>
       </c>
       <c r="S5">
-        <v>2.579045527661871E-05</v>
+        <v>0.0001110358160217673</v>
       </c>
       <c r="T5">
-        <v>2.57904552766187E-05</v>
+        <v>0.0001110358160217673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H6">
         <v>110.924753</v>
       </c>
       <c r="I6">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J6">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N6">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O6">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P6">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q6">
-        <v>1703.055735146646</v>
+        <v>1724.242153445113</v>
       </c>
       <c r="R6">
-        <v>15327.50161631982</v>
+        <v>15518.17938100602</v>
       </c>
       <c r="S6">
-        <v>0.865882808893201</v>
+        <v>0.8173794067698462</v>
       </c>
       <c r="T6">
-        <v>0.8658828088932009</v>
+        <v>0.8173794067698461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H7">
         <v>110.924753</v>
       </c>
       <c r="I7">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J7">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O7">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P7">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q7">
         <v>102.4486844989561</v>
       </c>
       <c r="R7">
-        <v>922.038160490605</v>
+        <v>922.0381604906049</v>
       </c>
       <c r="S7">
-        <v>0.05208787526482858</v>
+        <v>0.0485659423143047</v>
       </c>
       <c r="T7">
-        <v>0.05208787526482857</v>
+        <v>0.0485659423143047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H8">
         <v>110.924753</v>
       </c>
       <c r="I8">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J8">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N8">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q8">
-        <v>26.33536045813822</v>
+        <v>31.41407492418833</v>
       </c>
       <c r="R8">
-        <v>237.018244123244</v>
+        <v>282.726674317695</v>
       </c>
       <c r="S8">
-        <v>0.01338965919676382</v>
+        <v>0.01489188619733738</v>
       </c>
       <c r="T8">
-        <v>0.01338965919676382</v>
+        <v>0.01489188619733738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H9">
         <v>110.924753</v>
       </c>
       <c r="I9">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J9">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N9">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O9">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P9">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q9">
-        <v>66.63522294603477</v>
+        <v>24.47931819105199</v>
       </c>
       <c r="R9">
-        <v>599.717006514313</v>
+        <v>220.313863719468</v>
       </c>
       <c r="S9">
-        <v>0.03387927524918555</v>
+        <v>0.01160445505937419</v>
       </c>
       <c r="T9">
-        <v>0.03387927524918555</v>
+        <v>0.01160445505937419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H10">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I10">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J10">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N10">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O10">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P10">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q10">
-        <v>60.0343030615191</v>
+        <v>191.3098533362139</v>
       </c>
       <c r="R10">
-        <v>540.3087275536719</v>
+        <v>1721.788680025925</v>
       </c>
       <c r="S10">
-        <v>0.03052317660078092</v>
+        <v>0.09069070380673681</v>
       </c>
       <c r="T10">
-        <v>0.03052317660078091</v>
+        <v>0.0906907038067368</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H11">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I11">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J11">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O11">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P11">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q11">
-        <v>3.611411679920555</v>
+        <v>11.36698970433055</v>
       </c>
       <c r="R11">
-        <v>32.502705119285</v>
+        <v>102.302907338975</v>
       </c>
       <c r="S11">
-        <v>0.001836146184147085</v>
+        <v>0.005388537383058718</v>
       </c>
       <c r="T11">
-        <v>0.001836146184147085</v>
+        <v>0.005388537383058717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H12">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I12">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J12">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N12">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q12">
-        <v>0.928346018483111</v>
+        <v>3.485486104391667</v>
       </c>
       <c r="R12">
-        <v>8.355114166347999</v>
+        <v>31.369374939525</v>
       </c>
       <c r="S12">
-        <v>0.0004719979748870396</v>
+        <v>0.001652299567447556</v>
       </c>
       <c r="T12">
-        <v>0.0004719979748870396</v>
+        <v>0.001652299567447556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H13">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I13">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J13">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N13">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O13">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P13">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q13">
-        <v>2.348953757857889</v>
+        <v>2.71605398554</v>
       </c>
       <c r="R13">
-        <v>21.140583820721</v>
+        <v>24.44448586986</v>
       </c>
       <c r="S13">
-        <v>0.001194276050888665</v>
+        <v>0.001287549194305341</v>
       </c>
       <c r="T13">
-        <v>0.001194276050888665</v>
+        <v>0.001287549194305341</v>
       </c>
     </row>
   </sheetData>
